--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryu/git/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86D37AD-7A9C-FC43-ACE8-03ED3F405A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B48E76-3788-6E4B-836B-258BEF1892BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="4820" windowWidth="27740" windowHeight="11920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-340" yWindow="6780" windowWidth="27740" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
   <si>
     <t>改定履歴</t>
   </si>
@@ -861,10 +861,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>auto_incremment</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>0:参加人数制限なし　1:参加人数上限２人</t>
     <rPh sb="2" eb="6">
       <t>サンカニンズ</t>
@@ -1479,15 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,6 +1483,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1829,7 +1825,7 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="13">
-      <c r="A4" s="35">
+      <c r="A4" s="30">
         <v>44027</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1869,13 +1865,13 @@
         <v>44027</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1905,7 +1901,7 @@
         <v>44027</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>80</v>
@@ -1941,7 +1937,7 @@
         <v>44027</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>80</v>
@@ -1977,7 +1973,7 @@
         <v>44027</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>80</v>
@@ -30656,31 +30652,31 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -30955,25 +30951,25 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31206,7 +31202,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -31228,29 +31224,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31346,7 +31342,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>73</v>
@@ -31380,7 +31376,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I8" s="24"/>
@@ -31524,7 +31520,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="24"/>
@@ -31597,7 +31593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31619,29 +31615,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31700,7 +31696,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -31778,7 +31774,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31807,7 +31803,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31863,7 +31859,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16">
@@ -31889,8 +31885,8 @@
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="37" t="s">
-        <v>157</v>
+      <c r="K12" s="32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -31909,7 +31905,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="24"/>
@@ -31932,7 +31928,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="24"/>
@@ -32012,29 +32008,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32074,10 +32070,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32090,11 +32086,11 @@
         <v>70</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14">
@@ -32119,11 +32115,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32132,17 +32128,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="24"/>
@@ -32305,7 +32301,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32327,29 +32323,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32389,10 +32385,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32408,7 +32404,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -32434,11 +32430,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32446,10 +32442,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32464,7 +32460,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32473,10 +32469,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -32485,7 +32481,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I8" s="24"/>
@@ -32498,10 +32494,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
@@ -32568,7 +32564,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -32577,7 +32573,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>74</v>
@@ -32600,10 +32596,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>78</v>
@@ -32696,9 +32692,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32720,29 +32716,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32782,10 +32778,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32801,7 +32797,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -32811,10 +32807,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -32836,10 +32832,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32848,15 +32844,15 @@
         <v>10</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32865,10 +32861,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>78</v>
@@ -32886,10 +32882,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>78</v>
@@ -32907,10 +32903,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>76</v>
@@ -32927,7 +32923,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -32955,7 +32951,7 @@
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -32965,10 +32961,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>69</v>
@@ -32990,10 +32986,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>69</v>
@@ -33002,7 +32998,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="24"/>
@@ -33025,7 +33021,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="24"/>
@@ -33038,7 +33034,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>74</v>
@@ -33048,7 +33044,7 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I15" s="24"/>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryu/git/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B48E76-3788-6E4B-836B-258BEF1892BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2CFEC-5173-FD4C-839C-B236FB1925F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="6780" windowWidth="27740" windowHeight="11920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="6780" windowWidth="27740" windowHeight="11920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="157">
   <si>
     <t>改定履歴</t>
   </si>
@@ -794,13 +794,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>ファイル送信制御フラグ</t>
-    <rPh sb="4" eb="8">
-      <t>ソウシn</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ダイレクトチャットフラグ</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1067,23 +1060,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>期限日付</t>
-    <rPh sb="0" eb="4">
-      <t>キゲn</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>期限時間</t>
-    <rPh sb="0" eb="1">
-      <t>キゲn</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカn</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>完了フラグ</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -1124,23 +1100,11 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>deadline_date</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>deadline_time</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>is_completed</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>task_created_by</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>task_update_by</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1241,6 +1205,51 @@
       <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ファイル送信許可フラグ</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>期限日時</t>
+    <rPh sb="0" eb="2">
+      <t>キゲn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>deadline_date_time</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>task_updated_by</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>datetime型にデフォルト値を設定</t>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1714,8 +1723,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1865,13 +1874,13 @@
         <v>44027</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1901,7 +1910,7 @@
         <v>44027</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>80</v>
@@ -1937,7 +1946,7 @@
         <v>44027</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>80</v>
@@ -1973,7 +1982,7 @@
         <v>44027</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>80</v>
@@ -2005,10 +2014,18 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2033,10 +2050,18 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="13">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2061,10 +2086,18 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2089,10 +2122,18 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="13">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2117,10 +2158,18 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -31202,9 +31251,9 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31215,7 +31264,7 @@
     <col min="4" max="4" width="22" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="28"/>
     <col min="6" max="6" width="5.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="16384" width="14.5" style="28"/>
   </cols>
@@ -31320,7 +31369,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="20">
         <v>100</v>
@@ -31342,10 +31391,10 @@
         <v>53</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
@@ -31370,7 +31419,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
@@ -31496,7 +31545,9 @@
         <v>78</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="22" t="s">
         <v>70</v>
       </c>
@@ -31519,7 +31570,9 @@
         <v>78</v>
       </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
@@ -31593,7 +31646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31604,7 +31657,7 @@
     <col min="4" max="4" width="22" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="28"/>
     <col min="6" max="6" width="5.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="28"/>
     <col min="11" max="11" width="40.33203125" style="28" customWidth="1"/>
@@ -31680,7 +31733,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -31709,7 +31762,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -31734,7 +31787,7 @@
         <v>86</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -31754,10 +31807,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>76</v>
@@ -31774,7 +31827,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31783,10 +31836,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>76</v>
@@ -31803,7 +31856,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -31841,10 +31894,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>69</v>
@@ -31859,7 +31912,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16">
@@ -31868,10 +31921,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>69</v>
@@ -31886,7 +31939,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -31895,7 +31948,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>66</v>
@@ -31904,7 +31957,9 @@
         <v>78</v>
       </c>
       <c r="F13" s="21"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
@@ -31918,7 +31973,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>74</v>
@@ -31927,7 +31982,9 @@
         <v>78</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
@@ -31986,7 +32043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -31997,7 +32054,7 @@
     <col min="4" max="4" width="26" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="28"/>
     <col min="6" max="6" width="5.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="28"/>
     <col min="11" max="11" width="25.33203125" style="28" customWidth="1"/>
@@ -32009,7 +32066,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32019,7 +32076,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32070,10 +32127,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32086,11 +32143,11 @@
         <v>70</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14">
@@ -32102,7 +32159,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>69</v>
@@ -32115,11 +32172,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32128,16 +32185,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H7" s="29" t="s">
         <v>70</v>
       </c>
@@ -32301,7 +32360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32312,7 +32371,7 @@
     <col min="4" max="4" width="22" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="28"/>
     <col min="6" max="6" width="5.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="28"/>
     <col min="11" max="11" width="40.83203125" style="28" customWidth="1"/>
@@ -32324,7 +32383,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32334,7 +32393,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32385,10 +32444,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32417,7 +32476,7 @@
         <v>84</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>69</v>
@@ -32430,11 +32489,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32442,10 +32501,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32460,7 +32519,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32469,10 +32528,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -32494,10 +32553,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
@@ -32546,10 +32605,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>69</v>
@@ -32564,7 +32623,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -32573,7 +32632,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>74</v>
@@ -32582,7 +32641,9 @@
         <v>78</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H12" s="23" t="s">
         <v>70</v>
       </c>
@@ -32596,16 +32657,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="22" t="s">
         <v>70</v>
       </c>
@@ -32690,11 +32753,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32705,7 +32768,7 @@
     <col min="4" max="4" width="22" style="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="28"/>
     <col min="6" max="6" width="5.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="28"/>
     <col min="11" max="11" width="20.1640625" style="28" customWidth="1"/>
@@ -32717,7 +32780,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32727,7 +32790,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32774,14 +32837,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32807,10 +32870,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -32832,10 +32895,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32848,11 +32911,11 @@
         <v>70</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32861,10 +32924,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>78</v>
@@ -32882,20 +32945,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="B10" s="7">
@@ -32903,10 +32974,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>76</v>
@@ -32922,8 +32993,8 @@
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="19" t="s">
-        <v>146</v>
+      <c r="K10" s="31" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -32932,28 +33003,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="31" t="s">
-        <v>77</v>
-      </c>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="7">
@@ -32961,24 +33028,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <v>10</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="29" t="s">
         <v>70</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="7">
@@ -32986,18 +33053,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="21">
-        <v>10</v>
-      </c>
-      <c r="G13" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
@@ -33011,16 +33078,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
@@ -33028,43 +33097,20 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="29" t="s">
-        <v>70</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" ht="13">
-      <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
